--- a/tabular/master-references-taxdata.xlsx
+++ b/tabular/master-references-taxdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/Dengue-GLUE-Lineages/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/Dengue/Dengue-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE422C7C-FBEF-0B49-9419-7AB66402CF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D7008-3904-DD41-86C1-7299DD956174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="500" windowWidth="17960" windowHeight="15760" xr2:uid="{D4A8156A-14E7-F041-BA15-1B362DD6A95A}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>3III_A</t>
   </si>
   <si>
-    <t xml:space="preserve">1IV </t>
-  </si>
-  <si>
     <t>4II</t>
+  </si>
+  <si>
+    <t>1IV</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>

--- a/tabular/master-references-taxdata.xlsx
+++ b/tabular/master-references-taxdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/Dengue/Dengue-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/Dengue-GLUE-Lineages/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D7008-3904-DD41-86C1-7299DD956174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE422C7C-FBEF-0B49-9419-7AB66402CF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="500" windowWidth="17960" windowHeight="15760" xr2:uid="{D4A8156A-14E7-F041-BA15-1B362DD6A95A}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>3III_A</t>
   </si>
   <si>
+    <t xml:space="preserve">1IV </t>
+  </si>
+  <si>
     <t>4II</t>
-  </si>
-  <si>
-    <t>1IV</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>

--- a/tabular/master-references-taxdata.xlsx
+++ b/tabular/master-references-taxdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/Dengue/Dengue-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/arbovirus/Dengue-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D7008-3904-DD41-86C1-7299DD956174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71502270-77F5-C445-B33A-513384F0278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="500" windowWidth="17960" windowHeight="15760" xr2:uid="{D4A8156A-14E7-F041-BA15-1B362DD6A95A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>-</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>1IV</t>
+  </si>
+  <si>
+    <t>4II_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,16 +472,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -538,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -558,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -569,7 +572,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>

--- a/tabular/master-references-taxdata.xlsx
+++ b/tabular/master-references-taxdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/arbovirus/Dengue-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71502270-77F5-C445-B33A-513384F0278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2509FD-E220-4F45-817E-4A6FCA2EAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="500" windowWidth="17960" windowHeight="15760" xr2:uid="{D4A8156A-14E7-F041-BA15-1B362DD6A95A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>-</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>4II_B</t>
+  </si>
+  <si>
+    <t>minor_subsublineage</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D34832B-2581-F54E-A7C3-5B7E643B22E3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +484,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,8 +503,11 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -520,8 +526,11 @@
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -540,8 +549,11 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -560,8 +572,11 @@
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -578,6 +593,9 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
